--- a/delivery system/truck_delivery_optimization_results.xlsx
+++ b/delivery system/truck_delivery_optimization_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -493,38 +493,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Location 1</t>
+          <t>Location 2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -535,80 +535,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Location 3</t>
+          <t>Location 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Location 4</t>
+          <t>Location 3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>14.33333333333333</v>
+        <v>16.5</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Location 4</t>
+          <t>Location 3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>14.33333333333333</v>
+        <v>16.5</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -619,17 +619,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>14.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -640,59 +640,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Location 6</t>
+          <t>Location 5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>7.5</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Location 7</t>
+          <t>Location 6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>9.666666666666666</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -707,19 +707,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>9.666666666666666</v>
+        <v>36.99999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Location 7</t>
+          <t>Location 8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -728,286 +728,286 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>9.666666666666666</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Location 8</t>
+          <t>Location 9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Location 9</t>
+          <t>Location 10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Location 9</t>
+          <t>Location 10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Location 10</t>
+          <t>Location 11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Location 10</t>
+          <t>Location 12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Location 11</t>
+          <t>Location 13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>22.5</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Location 11</t>
+          <t>Location 14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Location 12</t>
+          <t>Location 14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Location 13</t>
+          <t>Location 14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Location 14</t>
+          <t>Location 15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>22.5</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Location 14</t>
+          <t>Location 16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>22.5</v>
+        <v>15.5</v>
       </c>
       <c r="E25" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Location 15</t>
+          <t>Location 16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Location 16</t>
+          <t>Location 17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1025,10 +1025,10 @@
         <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>14.5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -1039,44 +1039,44 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>14.5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Location 18</t>
+          <t>Location 17</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>18.5</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Location 18</t>
+          <t>Location 17</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1088,16 +1088,16 @@
         <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>18.5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Location 19</t>
+          <t>Location 18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1109,16 +1109,16 @@
         <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="E32" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Location 19</t>
+          <t>Location 18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1130,58 +1130,58 @@
         <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Location 20</t>
+          <t>Location 19</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="E34" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Location 21</t>
+          <t>Location 19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>22</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Location 21</t>
+          <t>Location 19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1190,208 +1190,208 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="E36" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Location 22</t>
+          <t>Location 20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>24.5</v>
       </c>
       <c r="E37" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Location 23</t>
+          <t>Location 20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="E38" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Location 23</t>
+          <t>Location 21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Location 24</t>
+          <t>Location 21</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>24.5</v>
+        <v>13</v>
       </c>
       <c r="E40" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Location 24</t>
+          <t>Location 21</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>24.5</v>
+        <v>13</v>
       </c>
       <c r="E41" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Location 25</t>
+          <t>Location 22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E42" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Location 25</t>
+          <t>Location 23</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>10</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="E43" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Location 26</t>
+          <t>Location 23</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="E44" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Location 26</t>
+          <t>Location 24</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Location 27</t>
+          <t>Location 24</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1400,82 +1400,82 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D46" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Location 28</t>
+          <t>Location 24</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>7.333333333333333</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Location 28</t>
+          <t>Location 25</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>14.66666666666667</v>
+        <v>23</v>
       </c>
       <c r="E48" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Location 29</t>
+          <t>Location 25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E49" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Location 30</t>
+          <t>Location 26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1484,19 +1484,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E50" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Location 30</t>
+          <t>Location 26</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1508,79 +1508,79 @@
         <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E51" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Location 31</t>
+          <t>Location 27</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>15</v>
       </c>
       <c r="D52" t="n">
-        <v>35</v>
+        <v>19.5</v>
       </c>
       <c r="E52" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Location 32</t>
+          <t>Location 27</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>15</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="E53" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Location 33</t>
+          <t>Location 28</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>15</v>
       </c>
       <c r="D54" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E54" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Location 34</t>
+          <t>Location 29</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1592,37 +1592,37 @@
         <v>15</v>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>19.99999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Location 35</t>
+          <t>Location 29</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>23.00000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Location 36</t>
+          <t>Location 30</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1631,40 +1631,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E57" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Location 36</t>
+          <t>Location 31</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Location 37</t>
+          <t>Location 32</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1676,16 +1676,16 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>29.5</v>
+        <v>44</v>
       </c>
       <c r="E59" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Location 37</t>
+          <t>Location 33</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1697,142 +1697,142 @@
         <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Location 38</t>
+          <t>Location 34</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D61" t="n">
-        <v>20.33333333333333</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="E61" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Location 38</t>
+          <t>Location 34</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D62" t="n">
-        <v>26.66666666666667</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="E62" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Location 39</t>
+          <t>Location 34</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D63" t="n">
-        <v>24.5</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="E63" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Location 39</t>
+          <t>Location 35</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>15</v>
       </c>
       <c r="D64" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="E64" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Location 40</t>
+          <t>Location 36</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="E65" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Location 41</t>
+          <t>Location 36</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>20.5</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Location 42</t>
+          <t>Location 37</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1841,61 +1841,61 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E67" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Location 43</t>
+          <t>Location 38</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E68" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Location 44</t>
+          <t>Location 39</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E69" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Location 45</t>
+          <t>Location 39</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1907,184 +1907,184 @@
         <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Location 46</t>
+          <t>Location 40</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Location 47</t>
+          <t>Location 41</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="E72" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Location 47</t>
+          <t>Location 41</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E73" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Location 47</t>
+          <t>Location 42</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>15</v>
       </c>
       <c r="D74" t="n">
-        <v>11.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E74" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Location 48</t>
+          <t>Location 42</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C75" t="n">
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>21</v>
+        <v>4.333333333333334</v>
       </c>
       <c r="E75" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Location 49</t>
+          <t>Location 42</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D76" t="n">
-        <v>20.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="E76" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Location 49</t>
+          <t>Location 43</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="E77" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Location 50</t>
+          <t>Location 44</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>22</v>
+        <v>25.5</v>
       </c>
       <c r="E78" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Location 50</t>
+          <t>Location 44</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2093,34 +2093,181 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="E79" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>Location 45</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>15</v>
+      </c>
+      <c r="D80" t="n">
+        <v>37</v>
+      </c>
+      <c r="E80" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Location 46</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>10</v>
+      </c>
+      <c r="D81" t="n">
+        <v>13</v>
+      </c>
+      <c r="E81" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Location 47</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>10</v>
+      </c>
+      <c r="D82" t="n">
+        <v>20</v>
+      </c>
+      <c r="E82" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Location 47</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>15</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20</v>
+      </c>
+      <c r="E83" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Location 48</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>15</v>
+      </c>
+      <c r="D84" t="n">
+        <v>36</v>
+      </c>
+      <c r="E84" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Location 49</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>10</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20</v>
+      </c>
+      <c r="E85" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>Location 50</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
         <v>10</v>
       </c>
-      <c r="D80" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E80" t="n">
-        <v>44</v>
+      <c r="D86" t="n">
+        <v>7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Location 50</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>10</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2177,11 +2324,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3">
@@ -2192,7 +2339,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2201,27 +2348,27 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Location 1</t>
+          <t>Location 2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>9.666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -2232,27 +2379,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>9.666666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Location 3</t>
+          <t>Location 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2261,18 +2408,18 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>9.666666666666666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Location 4</t>
+          <t>Location 3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2281,27 +2428,27 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.33333333333333</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Location 4</t>
+          <t>Location 3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14.33333333333333</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9">
@@ -2312,7 +2459,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2321,7 +2468,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14.33333333333333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -2332,7 +2479,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2341,18 +2488,18 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Location 6</t>
+          <t>Location 5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2361,27 +2508,27 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Location 7</t>
+          <t>Location 6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.666666666666666</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2397,17 +2544,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.666666666666666</v>
+        <v>36.99999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Location 7</t>
+          <t>Location 8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2417,42 +2564,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.666666666666666</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Location 8</t>
+          <t>Location 9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Location 9</t>
+          <t>Location 10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2461,23 +2608,23 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Location 9</t>
+          <t>Location 10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2487,32 +2634,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Location 10</t>
+          <t>Location 11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Location 10</t>
+          <t>Location 12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2521,38 +2668,38 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Location 11</t>
+          <t>Location 13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Location 11</t>
+          <t>Location 14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2561,18 +2708,18 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Location 12</t>
+          <t>Location 14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2581,18 +2728,18 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Location 13</t>
+          <t>Location 14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2601,18 +2748,18 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Location 14</t>
+          <t>Location 15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2621,38 +2768,38 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Location 14</t>
+          <t>Location 16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>22.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Location 15</t>
+          <t>Location 16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2661,18 +2808,18 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Location 16</t>
+          <t>Location 17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2681,7 +2828,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2701,7 +2848,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2712,7 +2859,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2721,18 +2868,18 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Location 18</t>
+          <t>Location 17</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2741,13 +2888,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>18.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Location 18</t>
+          <t>Location 17</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2761,13 +2908,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Location 19</t>
+          <t>Location 18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2781,13 +2928,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Location 19</t>
+          <t>Location 18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2801,18 +2948,18 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Location 20</t>
+          <t>Location 19</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2821,18 +2968,18 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Location 21</t>
+          <t>Location 19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2841,13 +2988,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>22</v>
+        <v>15.66666666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Location 21</t>
+          <t>Location 19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2857,22 +3004,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>15.66666666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Location 22</t>
+          <t>Location 20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2881,18 +3028,18 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Location 23</t>
+          <t>Location 20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2901,38 +3048,38 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>23</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Location 23</t>
+          <t>Location 21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Location 24</t>
+          <t>Location 21</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2941,18 +3088,18 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>24.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Location 24</t>
+          <t>Location 21</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2961,18 +3108,18 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>24.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Location 25</t>
+          <t>Location 22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2981,18 +3128,18 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Location 25</t>
+          <t>Location 23</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3001,53 +3148,53 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Location 26</t>
+          <t>Location 23</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Location 26</t>
+          <t>Location 24</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Location 27</t>
+          <t>Location 24</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3057,62 +3204,62 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Location 28</t>
+          <t>Location 24</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7.333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Location 28</t>
+          <t>Location 25</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>14.66666666666667</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Location 29</t>
+          <t>Location 25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3121,13 +3268,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Location 30</t>
+          <t>Location 26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3137,17 +3284,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Location 30</t>
+          <t>Location 26</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3161,18 +3308,18 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Location 31</t>
+          <t>Location 27</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3181,18 +3328,18 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>35</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Location 32</t>
+          <t>Location 27</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3201,18 +3348,18 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Location 33</t>
+          <t>Location 28</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3221,13 +3368,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Location 34</t>
+          <t>Location 29</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3241,33 +3388,33 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>19.99999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Location 35</t>
+          <t>Location 29</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>23.00000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Location 36</t>
+          <t>Location 30</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3277,37 +3424,37 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Location 36</t>
+          <t>Location 31</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Location 37</t>
+          <t>Location 32</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3321,13 +3468,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>29.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Location 37</t>
+          <t>Location 33</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3341,78 +3488,78 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Location 38</t>
+          <t>Location 34</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>20.33333333333333</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Location 38</t>
+          <t>Location 34</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>26.66666666666667</v>
+        <v>8.333333333333332</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Location 39</t>
+          <t>Location 34</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>24.5</v>
+        <v>8.333333333333334</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Location 39</t>
+          <t>Location 35</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3421,18 +3568,18 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Location 40</t>
+          <t>Location 36</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3441,33 +3588,33 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Location 41</t>
+          <t>Location 36</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>10</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Location 42</t>
+          <t>Location 37</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3477,42 +3624,42 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Location 43</t>
+          <t>Location 38</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Location 44</t>
+          <t>Location 39</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3521,13 +3668,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Location 45</t>
+          <t>Location 39</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3541,18 +3688,18 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Location 46</t>
+          <t>Location 40</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3561,18 +3708,18 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Location 47</t>
+          <t>Location 41</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3581,38 +3728,38 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Location 47</t>
+          <t>Location 41</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Location 47</t>
+          <t>Location 42</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3621,18 +3768,18 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11.5</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Location 48</t>
+          <t>Location 42</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3641,58 +3788,58 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>21</v>
+        <v>4.333333333333334</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Location 49</t>
+          <t>Location 42</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>20.5</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Location 49</t>
+          <t>Location 43</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Location 50</t>
+          <t>Location 44</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>R</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3701,13 +3848,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>22</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Location 50</t>
+          <t>Location 44</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3717,31 +3864,171 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>Location 45</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Truck Type 15 tons</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Location 46</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Truck Type 10 tons</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Location 47</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Truck Type 10 tons</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Location 47</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Truck Type 15 tons</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Location 48</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Truck Type 15 tons</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Location 49</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Truck Type 10 tons</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>Location 50</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>Truck Type 10 tons</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>14.5</v>
+      <c r="D86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Location 50</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Truck Type 10 tons</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +4109,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -3837,7 +4124,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3867,7 +4154,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3882,7 +4169,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -3897,7 +4184,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3969,7 +4256,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['M', 'W', 'F']</t>
+          <t>['M', 'R']</t>
         </is>
       </c>
     </row>
@@ -3981,7 +4268,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['M']</t>
+          <t>['M', 'W', 'F']</t>
         </is>
       </c>
     </row>
@@ -3993,7 +4280,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['R']</t>
+          <t>['T', 'F']</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4292,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['M', 'W', 'F']</t>
+          <t>['T']</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4304,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['F']</t>
+          <t>['M', 'R']</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4316,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['R']</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4328,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['M', 'W', 'F']</t>
+          <t>['W']</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4340,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['F']</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4352,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['M', 'R']</t>
+          <t>['R']</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4364,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['T', 'F']</t>
+          <t>['T']</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4376,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['T', 'F']</t>
+          <t>['F']</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4388,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['R']</t>
+          <t>['M']</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4412,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['M', 'R']</t>
+          <t>['M', 'W', 'F']</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4424,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['M']</t>
+          <t>['F']</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4436,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['T', 'F']</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4448,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['T', 'F']</t>
+          <t>['M', 'T', 'W', 'R', 'F']</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4472,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['T', 'F']</t>
+          <t>['M', 'W', 'F']</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4484,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['T']</t>
+          <t>['T', 'F']</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4496,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['T', 'F']</t>
+          <t>['M', 'W', 'F']</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4508,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['M']</t>
+          <t>['R']</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4520,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['T', 'F']</t>
+          <t>['M', 'R']</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4532,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['M', 'R']</t>
+          <t>['M', 'W', 'F']</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4544,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['M', 'R']</t>
+          <t>['T', 'F']</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4556,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['T']</t>
+          <t>['T', 'F']</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4568,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['M', 'R']</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4580,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['M']</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4592,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['T']</t>
+          <t>['W']</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4604,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['T', 'F']</t>
+          <t>['T']</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4616,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['T']</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4628,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['M']</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4640,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['R']</t>
+          <t>['M']</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4652,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['M', 'W', 'F']</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4664,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['R']</t>
+          <t>['W']</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4688,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['M']</t>
+          <t>['R']</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4700,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['F']</t>
+          <t>['W']</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4712,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['T', 'F']</t>
+          <t>['M', 'R']</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4724,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['R']</t>
         </is>
       </c>
     </row>
@@ -4449,7 +4736,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['M', 'R']</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4748,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['R']</t>
+          <t>['M', 'W', 'F']</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4760,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['R']</t>
+          <t>['T']</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4772,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['R']</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4784,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['R']</t>
+          <t>['W']</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4796,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['W']</t>
+          <t>['R']</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4820,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['M']</t>
+          <t>['R']</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4832,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['M']</t>
+          <t>['W']</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4844,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['M', 'R']</t>
+          <t>['T', 'F']</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4610,7 +4897,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Location 4 (14.333333333333334 tons)</t>
+          <t>Location 1 (11.5 tons)</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4914,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Location 7 (9.666666666666666 tons)</t>
+          <t>Location 2 (9.666666666666666 tons)</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4931,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Location 9 (12.0 tons)</t>
+          <t>Location 5 (7.5 tons)</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4948,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Location 14 (22.5 tons)</t>
+          <t>Location 14 (16.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4965,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Location 15 (15.0 tons)</t>
+          <t>Location 17 (4.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4982,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Location 22 (14.0 tons)</t>
+          <t>Location 19 (15.499999999999998 tons)</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4999,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Location 24 (24.5 tons)</t>
+          <t>Location 24 (8.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4729,7 +5016,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Location 25 (20.0 tons)</t>
+          <t>Location 27 (19.5 tons)</t>
         </is>
       </c>
     </row>
@@ -4746,7 +5033,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Location 37 (29.5 tons)</t>
+          <t>Location 28 (43.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4763,7 +5050,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Location 48 (21.0 tons)</t>
+          <t>Location 32 (44.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4780,7 +5067,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Location 49 (20.5 tons)</t>
+          <t>Location 39 (23.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4797,7 +5084,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Location 50 (22.0 tons)</t>
+          <t>Location 41 (19.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4809,12 +5096,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Location 1 (14.0 tons)</t>
+          <t>Location 42 (4.333333333333333 tons)</t>
         </is>
       </c>
     </row>
@@ -4831,7 +5118,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Location 2 (47.0 tons)</t>
+          <t>Location 12 (31.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4848,7 +5135,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Location 37 (8.5 tons)</t>
+          <t>Location 21 (13.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4865,41 +5152,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Location 49 (10.5 tons)</t>
+          <t>Location 23 (15.5 tons)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Location 10 (25.0 tons)</t>
+          <t>Location 33 (12.0 tons)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Location 17 (14.5 tons)</t>
+          <t>Location 34 (8.333333333333332 tons)</t>
         </is>
       </c>
     </row>
@@ -4916,7 +5203,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Location 18 (18.5 tons)</t>
+          <t>Location 3 (16.5 tons)</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5220,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Location 19 (14.5 tons)</t>
+          <t>Location 10 (1.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4950,7 +5237,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Location 20 (23.0 tons)</t>
+          <t>Location 16 (15.5 tons)</t>
         </is>
       </c>
     </row>
@@ -4967,7 +5254,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Location 21 (22.0 tons)</t>
+          <t>Location 17 (4.0 tons)</t>
         </is>
       </c>
     </row>
@@ -4984,7 +5271,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Location 23 (23.0 tons)</t>
+          <t>Location 18 (20.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5288,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Location 26 (21.0 tons)</t>
+          <t>Location 20 (24.5 tons)</t>
         </is>
       </c>
     </row>
@@ -5018,7 +5305,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Location 29 (42.0 tons)</t>
+          <t>Location 25 (23.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5322,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Location 47 (6.5 tons)</t>
+          <t>Location 26 (24.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5334,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Location 11 (22.5 tons)</t>
+          <t>Location 30 (44.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5064,12 +5351,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Location 26 (16.0 tons)</t>
+          <t>Location 36 (20.5 tons)</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5368,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Location 30 (12.0 tons)</t>
+          <t>Location 43 (32.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5390,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Location 36 (10.0 tons)</t>
+          <t>Location 4 (20.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5120,7 +5407,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Location 39 (24.5 tons)</t>
+          <t>Location 10 (12.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5137,41 +5424,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Location 47 (5.0 tons)</t>
+          <t>Location 31 (21.0 tons)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Location 1 (14.0 tons)</t>
+          <t>Location 47 (20.0 tons)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Location 6 (30.0 tons)</t>
+          <t>Location 50 (7.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5475,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Location 7 (9.666666666666666 tons)</t>
+          <t>Location 2 (9.666666666666666 tons)</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5492,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Location 13 (10.0 tons)</t>
+          <t>Location 13 (35.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5222,7 +5509,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Location 16 (17.0 tons)</t>
+          <t>Location 14 (16.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5526,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Location 28 (7.333333333333333 tons)</t>
+          <t>Location 17 (4.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5543,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Location 31 (35.0 tons)</t>
+          <t>Location 19 (15.666666666666668 tons)</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5560,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Location 32 (16.0 tons)</t>
+          <t>Location 21 (13.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5577,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Location 34 (17.0 tons)</t>
+          <t>Location 24 (8.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5594,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Location 40 (21.0 tons)</t>
+          <t>Location 29 (19.999999999999993 tons)</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5611,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Location 44 (29.0 tons)</t>
+          <t>Location 34 (8.333333333333332 tons)</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5628,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Location 46 (19.0 tons)</t>
+          <t>Location 35 (25.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5353,12 +5640,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Location 4 (14.333333333333334 tons)</t>
+          <t>Location 38 (29.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5370,12 +5657,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Location 8 (11.0 tons)</t>
+          <t>Location 42 (4.333333333333334 tons)</t>
         </is>
       </c>
     </row>
@@ -5387,12 +5674,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Location 27 (17.0 tons)</t>
+          <t>Location 45 (37.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5696,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Location 28 (14.666666666666666 tons)</t>
+          <t>Location 7 (36.99999999999999 tons)</t>
         </is>
       </c>
     </row>
@@ -5426,24 +5713,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Location 41 (10.0 tons)</t>
+          <t>Location 29 (23.000000000000007 tons)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Location 3 (40.0 tons)</t>
+          <t>Location 49 (20.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5747,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Location 9 (12.0 tons)</t>
+          <t>Location 1 (11.5 tons)</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5764,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Location 12 (26.0 tons)</t>
+          <t>Location 5 (7.5 tons)</t>
         </is>
       </c>
     </row>
@@ -5494,7 +5781,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Location 24 (24.5 tons)</t>
+          <t>Location 9 (42.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5798,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Location 33 (25.0 tons)</t>
+          <t>Location 17 (4.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5815,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Location 35 (17.0 tons)</t>
+          <t>Location 22 (11.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5545,7 +5832,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Location 42 (23.0 tons)</t>
+          <t>Location 27 (19.5 tons)</t>
         </is>
       </c>
     </row>
@@ -5562,7 +5849,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Location 45 (50.0 tons)</t>
+          <t>Location 39 (23.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5866,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Location 50 (7.5 tons)</t>
+          <t>Location 40 (11.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5591,12 +5878,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Location 14 (22.5 tons)</t>
+          <t>Location 41 (19.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5608,12 +5895,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Location 25 (20.0 tons)</t>
+          <t>Location 44 (25.5 tons)</t>
         </is>
       </c>
     </row>
@@ -5625,12 +5912,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Location 43 (23.0 tons)</t>
+          <t>Location 48 (36.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5647,75 +5934,75 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Location 50 (14.5 tons)</t>
+          <t>Location 6 (11.0 tons)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Location 5 (22.0 tons)</t>
+          <t>Location 23 (15.5 tons)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Location 7 (9.666666666666666 tons)</t>
+          <t>Location 37 (16.0 tons)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Location 11 (22.5 tons)</t>
+          <t>Location 44 (4.5 tons)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Truck Type 15 tons</t>
+          <t>Truck Type 10 tons</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Location 17 (14.5 tons)</t>
+          <t>Location 46 (13.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5732,7 +6019,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Location 18 (18.5 tons)</t>
+          <t>Location 2 (9.666666666666666 tons)</t>
         </is>
       </c>
     </row>
@@ -5749,7 +6036,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Location 19 (14.5 tons)</t>
+          <t>Location 3 (16.5 tons)</t>
         </is>
       </c>
     </row>
@@ -5766,7 +6053,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Location 21 (22.0 tons)</t>
+          <t>Location 14 (16.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5783,7 +6070,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Location 23 (23.0 tons)</t>
+          <t>Location 15 (10.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5800,7 +6087,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Location 30 (12.0 tons)</t>
+          <t>Location 16 (15.5 tons)</t>
         </is>
       </c>
     </row>
@@ -5817,7 +6104,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Location 36 (10.0 tons)</t>
+          <t>Location 17 (4.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5834,7 +6121,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Location 38 (20.333333333333332 tons)</t>
+          <t>Location 18 (20.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5851,7 +6138,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Location 39 (24.5 tons)</t>
+          <t>Location 20 (24.5 tons)</t>
         </is>
       </c>
     </row>
@@ -5868,7 +6155,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Location 47 (11.5 tons)</t>
+          <t>Location 21 (13.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5880,12 +6167,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Location 1 (14.0 tons)</t>
+          <t>Location 25 (23.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5897,12 +6184,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Location 4 (14.333333333333334 tons)</t>
+          <t>Location 26 (24.0 tons)</t>
         </is>
       </c>
     </row>
@@ -5914,12 +6201,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Truck Type 10 tons</t>
+          <t>Truck Type 15 tons</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Location 10 (25.0 tons)</t>
+          <t>Location 34 (8.333333333333334 tons)</t>
         </is>
       </c>
     </row>
@@ -5931,12 +6218,131 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>Truck Type 15 tons</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Location 36 (20.5 tons)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Truck Type 15 tons</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Location 47 (20.0 tons)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>Truck Type 10 tons</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Location 38 (26.666666666666668 tons)</t>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Location 8 (31.0 tons)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Truck Type 10 tons</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Location 11 (14.0 tons)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Truck Type 10 tons</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Location 19 (15.666666666666666 tons)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Truck Type 10 tons</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Location 24 (8.0 tons)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Truck Type 10 tons</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Location 42 (4.333333333333333 tons)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Truck Type 10 tons</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Location 50 (7.0 tons)</t>
         </is>
       </c>
     </row>
